--- a/Mieten.xlsx
+++ b/Mieten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaiherbst/dev-kai/wime-modellierung-kaltmiete/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Desktop/Schreibtisch – MacBook Pro von Manuel/Master/Semester 1/Wissenschaftliche_Methodik/WM_WiSe23/Modellierung_Kaltmiete/wime-modellierung-kaltmiete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8B1DDC-B6D6-7D4D-883A-59AFF571D776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB777BD-43D7-6844-A45A-BD97AF10254E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="121">
   <si>
     <t>Ort</t>
   </si>
@@ -770,9 +770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="194" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="194" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -963,9 +963,6 @@
       <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
-        <v>77</v>
-      </c>
       <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2255,9 +2252,6 @@
       <c r="I39" t="s">
         <v>42</v>
       </c>
-      <c r="J39" t="s">
-        <v>77</v>
-      </c>
       <c r="K39" s="2" t="s">
         <v>58</v>
       </c>
@@ -2483,9 +2477,6 @@
       <c r="I45" t="s">
         <v>16</v>
       </c>
-      <c r="J45" t="s">
-        <v>77</v>
-      </c>
       <c r="K45" s="2" t="s">
         <v>64</v>
       </c>
@@ -2521,9 +2512,6 @@
       <c r="I46" t="s">
         <v>16</v>
       </c>
-      <c r="J46" t="s">
-        <v>77</v>
-      </c>
       <c r="K46" s="2" t="s">
         <v>65</v>
       </c>
@@ -2886,9 +2874,6 @@
       <c r="I56" t="s">
         <v>42</v>
       </c>
-      <c r="J56" t="s">
-        <v>77</v>
-      </c>
       <c r="K56" s="2" t="s">
         <v>78</v>
       </c>
@@ -3341,9 +3326,6 @@
       <c r="I69" t="s">
         <v>14</v>
       </c>
-      <c r="J69" t="s">
-        <v>77</v>
-      </c>
       <c r="K69" s="2" t="s">
         <v>91</v>
       </c>
@@ -3376,9 +3358,6 @@
       <c r="I70" t="s">
         <v>77</v>
       </c>
-      <c r="J70" t="s">
-        <v>77</v>
-      </c>
       <c r="K70" s="2" t="s">
         <v>92</v>
       </c>
@@ -3481,9 +3460,6 @@
       <c r="I73" t="s">
         <v>49</v>
       </c>
-      <c r="J73" t="s">
-        <v>77</v>
-      </c>
       <c r="K73" s="2" t="s">
         <v>95</v>
       </c>
@@ -3516,9 +3492,6 @@
       <c r="I74" t="s">
         <v>77</v>
       </c>
-      <c r="J74" t="s">
-        <v>77</v>
-      </c>
       <c r="K74" s="2" t="s">
         <v>96</v>
       </c>
@@ -3586,9 +3559,6 @@
       <c r="I76" t="s">
         <v>77</v>
       </c>
-      <c r="J76" t="s">
-        <v>77</v>
-      </c>
       <c r="K76" s="2" t="s">
         <v>98</v>
       </c>
@@ -3621,9 +3591,6 @@
       <c r="I77" t="s">
         <v>77</v>
       </c>
-      <c r="J77" t="s">
-        <v>77</v>
-      </c>
       <c r="K77" s="2" t="s">
         <v>99</v>
       </c>
@@ -3796,9 +3763,6 @@
       <c r="I82" t="s">
         <v>77</v>
       </c>
-      <c r="J82" t="s">
-        <v>77</v>
-      </c>
       <c r="K82" s="2" t="s">
         <v>104</v>
       </c>
@@ -3831,9 +3795,6 @@
       <c r="I83" t="s">
         <v>77</v>
       </c>
-      <c r="J83" t="s">
-        <v>77</v>
-      </c>
       <c r="K83" s="2" t="s">
         <v>105</v>
       </c>
@@ -4144,9 +4105,6 @@
         <v>19</v>
       </c>
       <c r="I92" t="s">
-        <v>77</v>
-      </c>
-      <c r="J92" t="s">
         <v>77</v>
       </c>
       <c r="K92" s="2" t="s">

--- a/Mieten.xlsx
+++ b/Mieten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Desktop/Schreibtisch – MacBook Pro von Manuel/Master/Semester 1/Wissenschaftliche_Methodik/WM_WiSe23/Modellierung_Kaltmiete/wime-modellierung-kaltmiete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB777BD-43D7-6844-A45A-BD97AF10254E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D4DC3F-21A3-364F-A966-3C6E2756A6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10620" yWindow="-25740" windowWidth="51660" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="122">
   <si>
     <t>Ort</t>
   </si>
@@ -104,9 +104,6 @@
     <t>nein</t>
   </si>
   <si>
-    <t>https://www.immobilienscout24.de/expose/148019739?referrer=RESULT_LIST_LISTING&amp;searchId=69ea3df3-e89a-3ab4-867f-0ff781e346cb&amp;searchType=district#/</t>
-  </si>
-  <si>
     <t>https://www.immobilienscout24.de/expose/147315217?referrer=RESULT_LIST_LISTING&amp;searchId=69ea3df3-e89a-3ab4-867f-0ff781e346cb&amp;searchType=district#/</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>https://www.immobilienscout24.de/expose/147987529?referrer=RESULT_LIST_LISTING&amp;searchId=69ea3df3-e89a-3ab4-867f-0ff781e346cb&amp;searchType=district#/</t>
   </si>
   <si>
-    <t>https://www.immobilienscout24.de/expose/148151314?referrer=RESULT_LIST_LISTING&amp;searchId=69ea3df3-e89a-3ab4-867f-0ff781e346cb&amp;searchType=district#/</t>
-  </si>
-  <si>
     <t>https://www.immobilienscout24.de/expose/148207153?referrer=RESULT_LIST_LISTING&amp;searchId=d5bcff1c-250b-38f4-8d08-3cd0e13b9797&amp;searchType=district#/</t>
   </si>
   <si>
@@ -236,12 +230,6 @@
     <t>https://www.immobilienscout24.de/expose/148125600?referrer=RESULT_LIST_LISTING&amp;searchId=69ea3df3-e89a-3ab4-867f-0ff781e346cb&amp;searchType=district#/</t>
   </si>
   <si>
-    <t>https://www.immobilienscout24.de/expose/148146567?referrer=RESULT_LIST_LISTING&amp;searchId=69ea3df3-e89a-3ab4-867f-0ff781e346cb&amp;searchType=district#/</t>
-  </si>
-  <si>
-    <t>https://www.immobilienscout24.de/expose/148205760?referrer=RESULT_LIST_LISTING&amp;searchId=d5bcff1c-250b-38f4-8d08-3cd0e13b9797&amp;searchType=district#/</t>
-  </si>
-  <si>
     <t>Öl</t>
   </si>
   <si>
@@ -278,9 +266,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>https://www.immobilienscout24.de/expose/148164639</t>
-  </si>
-  <si>
     <t>https://www.immobilienscout24.de/expose/137078073</t>
   </si>
   <si>
@@ -317,33 +302,15 @@
     <t>https://www.immobilienscout24.de/expose/132838377</t>
   </si>
   <si>
-    <t>https://www.immobilienscout24.de/expose/148175845</t>
-  </si>
-  <si>
-    <t>https://www.immobilienscout24.de/expose/146169880</t>
-  </si>
-  <si>
     <t>https://www.immobilienscout24.de/expose/136670851</t>
   </si>
   <si>
     <t>https://www.immobilienscout24.de/expose/147361228</t>
   </si>
   <si>
-    <t>https://www.immobilienscout24.de/expose/132182727</t>
-  </si>
-  <si>
-    <t>https://www.immobilienscout24.de/expose/148172944</t>
-  </si>
-  <si>
     <t>https://www.immobilienscout24.de/expose/142403508</t>
   </si>
   <si>
-    <t>https://www.immobilienscout24.de/expose/148171732</t>
-  </si>
-  <si>
-    <t>https://www.immobilienscout24.de/expose/148171413</t>
-  </si>
-  <si>
     <t>https://www.immobilienscout24.de/expose/147706109</t>
   </si>
   <si>
@@ -356,12 +323,6 @@
     <t>https://www.immobilienscout24.de/expose/147202127</t>
   </si>
   <si>
-    <t>https://www.immobilienscout24.de/expose/148161875</t>
-  </si>
-  <si>
-    <t>https://www.immobilienscout24.de/expose/147960378</t>
-  </si>
-  <si>
     <t>https://www.immobilienscout24.de/expose/148160311</t>
   </si>
   <si>
@@ -405,6 +366,48 @@
   </si>
   <si>
     <t>https://www.immobilienscout24.de/expose/136256164?referrer=RESULT_LIST_LISTING&amp;searchId=b91d15c4-cfd2-3c88-a0b6-9c5111de10a5&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148760443?referrer=RESULT_LIST_LISTING&amp;searchId=85c7de5d-6a12-34e0-852a-46dfd3021c7a&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148902379?referrer=RESULT_LIST_LISTING&amp;searchId=85c7de5d-6a12-34e0-852a-46dfd3021c7a&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148901861?referrer=RESULT_LIST_LISTING&amp;searchId=85c7de5d-6a12-34e0-852a-46dfd3021c7a&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148827460?referrer=RESULT_LIST_LISTING&amp;searchId=85c7de5d-6a12-34e0-852a-46dfd3021c7a&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148215304?referrer=RESULT_LIST_LISTING&amp;searchId=354014a7-8bf3-38ef-9d5e-692a520bb8c0&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148747046?referrer=RESULT_LIST_LISTING&amp;searchId=354014a7-8bf3-38ef-9d5e-692a520bb8c0&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148513231?referrer=RESULT_LIST_LISTING&amp;searchId=354014a7-8bf3-38ef-9d5e-692a520bb8c0&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148872928?referrer=RESULT_LIST_LISTING&amp;searchId=354014a7-8bf3-38ef-9d5e-692a520bb8c0&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148755915?referrer=RESULT_LIST_LISTING&amp;searchId=354014a7-8bf3-38ef-9d5e-692a520bb8c0&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/147157924?referrer=RESULT_LIST_LISTING&amp;searchId=354014a7-8bf3-38ef-9d5e-692a520bb8c0&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148868244?referrer=RESULT_LIST_LISTING&amp;searchId=354014a7-8bf3-38ef-9d5e-692a520bb8c0&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148850420?referrer=RESULT_LIST_LISTING&amp;searchId=354014a7-8bf3-38ef-9d5e-692a520bb8c0&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148855601?referrer=RESULT_LIST_LISTING&amp;searchId=354014a7-8bf3-38ef-9d5e-692a520bb8c0&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.de/expose/148846972?referrer=RESULT_LIST_LISTING&amp;searchId=354014a7-8bf3-38ef-9d5e-692a520bb8c0&amp;searchType=district#/</t>
   </si>
 </sst>
 </file>
@@ -770,9 +773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="194" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -940,22 +943,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -963,11 +966,14 @@
       <c r="I5" t="s">
         <v>14</v>
       </c>
+      <c r="J5">
+        <v>2021</v>
+      </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="L5" s="1">
-        <v>45288</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -1002,7 +1008,7 @@
         <v>2015</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="1">
         <v>45288</v>
@@ -1040,7 +1046,7 @@
         <v>2021</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="1">
         <v>45288</v>
@@ -1078,7 +1084,7 @@
         <v>2021</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="1">
         <v>45288</v>
@@ -1116,7 +1122,7 @@
         <v>2016</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1">
         <v>45288</v>
@@ -1154,7 +1160,7 @@
         <v>2014</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1">
         <v>45288</v>
@@ -1192,7 +1198,7 @@
         <v>2013</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="1">
         <v>45288</v>
@@ -1230,7 +1236,7 @@
         <v>2021</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="1">
         <v>45288</v>
@@ -1262,13 +1268,13 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13">
         <v>2019</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" s="1">
         <v>45288</v>
@@ -1300,13 +1306,13 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14">
         <v>2015</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14" s="1">
         <v>45288</v>
@@ -1338,13 +1344,13 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15">
         <v>2012</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="1">
         <v>45288</v>
@@ -1376,13 +1382,13 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16">
         <v>2012</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="1">
         <v>45288</v>
@@ -1414,13 +1420,13 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17">
         <v>2012</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L17" s="1">
         <v>45288</v>
@@ -1452,13 +1458,13 @@
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18">
         <v>2019</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18" s="1">
         <v>45288</v>
@@ -1496,7 +1502,7 @@
         <v>2023</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L19" s="1">
         <v>45288</v>
@@ -1534,7 +1540,7 @@
         <v>2023</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L20" s="1">
         <v>45288</v>
@@ -1572,7 +1578,7 @@
         <v>2016</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L21" s="1">
         <v>45288</v>
@@ -1610,7 +1616,7 @@
         <v>2021</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L22" s="1">
         <v>45288</v>
@@ -1648,7 +1654,7 @@
         <v>2018</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="1">
         <v>45288</v>
@@ -1686,7 +1692,7 @@
         <v>2001</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L24" s="1">
         <v>45294</v>
@@ -1724,7 +1730,7 @@
         <v>1986</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L25" s="1">
         <v>45294</v>
@@ -1756,13 +1762,13 @@
         <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26">
         <v>1910</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L26" s="1">
         <v>45288</v>
@@ -1800,7 +1806,7 @@
         <v>2023</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L27" s="1">
         <v>45288</v>
@@ -1832,13 +1838,13 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J28">
         <v>2017</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L28" s="1">
         <v>45288</v>
@@ -1876,7 +1882,7 @@
         <v>1900</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L29" s="1">
         <v>45288</v>
@@ -1914,7 +1920,7 @@
         <v>1997</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L30" s="1">
         <v>45288</v>
@@ -1952,7 +1958,7 @@
         <v>1991</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L31" s="1">
         <v>45288</v>
@@ -1984,13 +1990,13 @@
         <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>2014</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L32" s="1">
         <v>45294</v>
@@ -2022,13 +2028,13 @@
         <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33">
         <v>1993</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L33" s="1">
         <v>45288</v>
@@ -2060,13 +2066,13 @@
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J34">
         <v>2023</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L34" s="1">
         <v>45288</v>
@@ -2104,7 +2110,7 @@
         <v>2003</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L35" s="1">
         <v>45288</v>
@@ -2136,13 +2142,13 @@
         <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J36">
         <v>2023</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L36" s="1">
         <v>45294</v>
@@ -2180,7 +2186,7 @@
         <v>1966</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L37" s="1">
         <v>45288</v>
@@ -2212,13 +2218,13 @@
         <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J38">
         <v>2024</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L38" s="1">
         <v>45288</v>
@@ -2229,19 +2235,19 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>690</v>
+        <v>820</v>
       </c>
       <c r="C39">
-        <v>70</v>
+        <v>59.4</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F39">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
@@ -2250,13 +2256,16 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="J39">
+        <v>1973</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="L39" s="1">
-        <v>45288</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
@@ -2285,13 +2294,13 @@
         <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>1920</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L40" s="1">
         <v>45294</v>
@@ -2329,7 +2338,7 @@
         <v>1991</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L41" s="1">
         <v>45288</v>
@@ -2367,7 +2376,7 @@
         <v>1964</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L42" s="1">
         <v>45294</v>
@@ -2405,7 +2414,7 @@
         <v>2019</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L43" s="1">
         <v>45294</v>
@@ -2437,13 +2446,13 @@
         <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>1961</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L44" s="1">
         <v>45288</v>
@@ -2454,16 +2463,16 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>1100</v>
+        <v>880</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -2472,16 +2481,19 @@
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>1910</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="L45" s="1">
-        <v>45288</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
@@ -2489,34 +2501,37 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>670</v>
+        <v>995</v>
       </c>
       <c r="C46">
-        <v>34</v>
+        <v>72.66</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I46" t="s">
         <v>16</v>
       </c>
+      <c r="J46">
+        <v>2008</v>
+      </c>
       <c r="K46" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="L46" s="1">
-        <v>45294</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
@@ -2545,13 +2560,13 @@
         <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J47">
         <v>1954</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L47" s="1">
         <v>45294</v>
@@ -2583,13 +2598,13 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <v>1900</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L48" s="1">
         <v>45288</v>
@@ -2621,13 +2636,13 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J49">
         <v>1961</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L49" s="1">
         <v>45288</v>
@@ -2659,13 +2674,13 @@
         <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J50">
         <v>2021</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L50" s="1">
         <v>45288</v>
@@ -2703,7 +2718,7 @@
         <v>1972</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L51" s="1">
         <v>45294</v>
@@ -2711,7 +2726,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B52">
         <v>765</v>
@@ -2738,7 +2753,7 @@
         <v>2018</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L52" s="1">
         <v>45290</v>
@@ -2746,7 +2761,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B53">
         <v>1035</v>
@@ -2773,7 +2788,7 @@
         <v>1890</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L53" s="1">
         <v>45290</v>
@@ -2781,7 +2796,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B54">
         <v>749</v>
@@ -2808,7 +2823,7 @@
         <v>2008</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L54" s="1">
         <v>45290</v>
@@ -2816,7 +2831,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>788.7</v>
@@ -2843,7 +2858,7 @@
         <v>2017</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L55" s="1">
         <v>45290</v>
@@ -2851,39 +2866,42 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B56">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="C56">
-        <v>51.3</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="J56">
+        <v>1978</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="L56" s="1">
-        <v>45290</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B57">
         <v>1068.78</v>
@@ -2910,7 +2928,7 @@
         <v>1968</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L57" s="1">
         <v>45290</v>
@@ -2918,7 +2936,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B58">
         <v>1526.58</v>
@@ -2945,7 +2963,7 @@
         <v>1968</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L58" s="1">
         <v>45290</v>
@@ -2953,7 +2971,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>985.74</v>
@@ -2980,7 +2998,7 @@
         <v>1968</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L59" s="1">
         <v>45290</v>
@@ -2988,7 +3006,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>1475.32</v>
@@ -3015,7 +3033,7 @@
         <v>1968</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L60" s="1">
         <v>45290</v>
@@ -3023,7 +3041,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>2650</v>
@@ -3050,7 +3068,7 @@
         <v>2015</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L61" s="1">
         <v>45290</v>
@@ -3058,7 +3076,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>955</v>
@@ -3079,13 +3097,13 @@
         <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J62">
         <v>2023</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L62" s="1">
         <v>45290</v>
@@ -3093,7 +3111,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>1215</v>
@@ -3120,7 +3138,7 @@
         <v>2019</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L63" s="1">
         <v>45290</v>
@@ -3128,7 +3146,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>2010</v>
@@ -3155,7 +3173,7 @@
         <v>2019</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L64" s="1">
         <v>45290</v>
@@ -3163,7 +3181,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>1250</v>
@@ -3190,7 +3208,7 @@
         <v>1870</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L65" s="1">
         <v>45290</v>
@@ -3198,7 +3216,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>1398</v>
@@ -3219,13 +3237,13 @@
         <v>13</v>
       </c>
       <c r="I66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J66">
         <v>1918</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L66" s="1">
         <v>45290</v>
@@ -3233,7 +3251,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>1382</v>
@@ -3260,7 +3278,7 @@
         <v>1900</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L67" s="1">
         <v>45290</v>
@@ -3268,7 +3286,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>690</v>
@@ -3295,7 +3313,7 @@
         <v>1900</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L68" s="1">
         <v>45290</v>
@@ -3303,71 +3321,77 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>816</v>
+        <v>498</v>
       </c>
       <c r="C69">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69">
         <v>1</v>
       </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="J69">
+        <v>1997</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="L69" s="1">
-        <v>45290</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>1101</v>
+        <v>575</v>
       </c>
       <c r="C70">
-        <v>99.45</v>
+        <v>46</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I70" t="s">
-        <v>77</v>
+        <v>16</v>
+      </c>
+      <c r="J70">
+        <v>1900</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="L70" s="1">
-        <v>45290</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>650</v>
@@ -3388,13 +3412,13 @@
         <v>19</v>
       </c>
       <c r="I71" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J71">
         <v>1920</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L71" s="1">
         <v>45290</v>
@@ -3402,7 +3426,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>1599</v>
@@ -3423,13 +3447,13 @@
         <v>13</v>
       </c>
       <c r="I72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J72">
         <v>2021</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L72" s="1">
         <v>45290</v>
@@ -3437,71 +3461,77 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B73">
-        <v>658</v>
+        <v>350.53</v>
       </c>
       <c r="C73">
-        <v>52</v>
+        <v>32.76</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
       </c>
-      <c r="E73" t="s">
-        <v>77</v>
+      <c r="E73">
+        <v>3</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="J73">
+        <v>1996</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="L73" s="1">
-        <v>45290</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B74">
-        <v>450</v>
+        <v>645</v>
       </c>
       <c r="C74">
-        <v>44</v>
+        <v>88.11</v>
       </c>
       <c r="D74" t="s">
         <v>19</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G74" t="s">
         <v>13</v>
       </c>
       <c r="I74" t="s">
-        <v>77</v>
+        <v>27</v>
+      </c>
+      <c r="J74">
+        <v>1983</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="L74" s="1">
-        <v>45290</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B75">
         <v>2200</v>
@@ -3528,7 +3558,7 @@
         <v>1914</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L75" s="1">
         <v>45290</v>
@@ -3536,63 +3566,69 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B76">
-        <v>839</v>
+        <v>2360</v>
       </c>
       <c r="C76">
-        <v>70</v>
+        <v>196.52</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G76" t="s">
         <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>77</v>
+        <v>16</v>
+      </c>
+      <c r="J76">
+        <v>1863</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="L76" s="1">
-        <v>45290</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B77">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="C77">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I77" t="s">
-        <v>77</v>
+        <v>16</v>
+      </c>
+      <c r="J77">
+        <v>1930</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="L77" s="1">
         <v>45290</v>
@@ -3600,7 +3636,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B78">
         <v>783</v>
@@ -3627,7 +3663,7 @@
         <v>1900</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="L78" s="1">
         <v>45290</v>
@@ -3635,7 +3671,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B79">
         <v>576</v>
@@ -3656,13 +3692,13 @@
         <v>19</v>
       </c>
       <c r="I79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J79">
         <v>2009</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L79" s="1">
         <v>45290</v>
@@ -3670,7 +3706,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B80">
         <v>676</v>
@@ -3691,13 +3727,13 @@
         <v>19</v>
       </c>
       <c r="I80" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J80">
         <v>1900</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L80" s="1">
         <v>45290</v>
@@ -3705,7 +3741,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B81">
         <v>949</v>
@@ -3732,7 +3768,7 @@
         <v>1926</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L81" s="1">
         <v>45290</v>
@@ -3740,71 +3776,77 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B82">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="C82">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82" t="s">
         <v>13</v>
       </c>
       <c r="I82" t="s">
-        <v>77</v>
+        <v>16</v>
+      </c>
+      <c r="J82">
+        <v>1895</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="L82" s="1">
-        <v>45290</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B83">
-        <v>1470</v>
+        <v>471</v>
       </c>
       <c r="C83">
-        <v>98</v>
+        <v>72.44</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" t="s">
         <v>13</v>
       </c>
       <c r="I83" t="s">
-        <v>77</v>
+        <v>16</v>
+      </c>
+      <c r="J83">
+        <v>1981</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="L83" s="1">
-        <v>45290</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B84">
         <v>1051</v>
@@ -3825,13 +3867,13 @@
         <v>13</v>
       </c>
       <c r="I84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J84">
         <v>1910</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L84" s="1">
         <v>45290</v>
@@ -3839,7 +3881,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B85">
         <v>690</v>
@@ -3860,13 +3902,13 @@
         <v>13</v>
       </c>
       <c r="I85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J85">
         <v>1897</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="L85" s="1">
         <v>45290</v>
@@ -3874,7 +3916,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B86">
         <v>700</v>
@@ -3895,13 +3937,13 @@
         <v>19</v>
       </c>
       <c r="I86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J86">
         <v>1955</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L86" s="1">
         <v>45290</v>
@@ -3909,7 +3951,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B87">
         <v>948</v>
@@ -3936,7 +3978,7 @@
         <v>1910</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L87" s="1">
         <v>45290</v>
@@ -3944,7 +3986,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B88">
         <v>2360</v>
@@ -3965,13 +4007,13 @@
         <v>13</v>
       </c>
       <c r="I88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J88">
         <v>1863</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="L88" s="1">
         <v>45290</v>
@@ -3979,7 +4021,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B89">
         <v>665</v>
@@ -4006,7 +4048,7 @@
         <v>1920</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="L89" s="1">
         <v>45290</v>
@@ -4014,7 +4056,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B90">
         <v>950</v>
@@ -4026,7 +4068,7 @@
         <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90">
         <v>3</v>
@@ -4035,13 +4077,13 @@
         <v>19</v>
       </c>
       <c r="I90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J90">
         <v>1897</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="L90" s="1">
         <v>45290</v>
@@ -4049,7 +4091,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B91">
         <v>788.7</v>
@@ -4076,7 +4118,7 @@
         <v>2017</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L91" s="1">
         <v>45290</v>
@@ -4084,13 +4126,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B92">
-        <v>479</v>
+        <v>1350</v>
       </c>
       <c r="C92">
-        <v>51.3</v>
+        <v>127</v>
       </c>
       <c r="D92" t="s">
         <v>19</v>
@@ -4099,24 +4141,27 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I92" t="s">
-        <v>77</v>
+        <v>41</v>
+      </c>
+      <c r="J92">
+        <v>1900</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="L92" s="1">
-        <v>45290</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B93">
         <v>1035</v>
@@ -4143,7 +4188,7 @@
         <v>1890</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L93" s="1">
         <v>45290</v>
@@ -4151,7 +4196,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B94">
         <v>725</v>
@@ -4172,13 +4217,13 @@
         <v>19</v>
       </c>
       <c r="I94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J94">
         <v>1912</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L94" s="1">
         <v>45290</v>
@@ -4186,7 +4231,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B95">
         <v>488.33</v>
@@ -4213,7 +4258,7 @@
         <v>1900</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="L95" s="1">
         <v>45290</v>
@@ -4221,7 +4266,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B96">
         <v>698</v>
@@ -4233,7 +4278,7 @@
         <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F96">
         <v>3</v>
@@ -4242,13 +4287,13 @@
         <v>13</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J96">
         <v>1961</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L96" s="1">
         <v>45290</v>
@@ -4256,7 +4301,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B97">
         <v>688.5</v>
@@ -4283,7 +4328,7 @@
         <v>1900</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="L97" s="1">
         <v>45294</v>
@@ -4291,7 +4336,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B98">
         <v>758.94</v>
@@ -4318,7 +4363,7 @@
         <v>2020</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="L98" s="1">
         <v>45294</v>
@@ -4326,7 +4371,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B99">
         <v>1105</v>
@@ -4353,7 +4398,7 @@
         <v>1900</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="L99" s="1">
         <v>45294</v>
@@ -4361,7 +4406,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B100">
         <v>899</v>
@@ -4388,7 +4433,7 @@
         <v>1998</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="L100" s="1">
         <v>45294</v>
@@ -4396,7 +4441,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B101">
         <v>749</v>
@@ -4423,7 +4468,7 @@
         <v>2008</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L101" s="1">
         <v>45294</v>
@@ -4435,89 +4480,78 @@
     <hyperlink ref="K2" r:id="rId1" location="/" xr:uid="{4F486623-0255-4E54-8D8D-5A44280F75AD}"/>
     <hyperlink ref="K3" r:id="rId2" location="/" xr:uid="{B5496118-907E-4B44-B7DA-EE6819F7C497}"/>
     <hyperlink ref="K4" r:id="rId3" location="/" xr:uid="{B569EB44-CBC0-4A56-BA5E-4A90002ACF16}"/>
-    <hyperlink ref="K5" r:id="rId4" location="/" xr:uid="{4A15EF77-C07F-4612-96CB-8DCA35C69299}"/>
-    <hyperlink ref="K6" r:id="rId5" location="/" xr:uid="{E3ACA3C5-57D0-46F7-96A0-9C01A6CDFD3C}"/>
-    <hyperlink ref="K7" r:id="rId6" location="/" xr:uid="{C2F82212-3B26-401E-9D5E-241E9BB0454A}"/>
-    <hyperlink ref="K8" r:id="rId7" location="/" xr:uid="{76168D76-EC85-46F9-A2F5-431CFCBD0F9D}"/>
-    <hyperlink ref="K9" r:id="rId8" location="/" xr:uid="{87F19E06-29C9-47B7-8515-AF2F9D249120}"/>
-    <hyperlink ref="K10" r:id="rId9" location="/" xr:uid="{FC666AD3-D5FE-4D95-83CF-A09FE113A978}"/>
-    <hyperlink ref="K11" r:id="rId10" location="/" xr:uid="{66661BEC-B500-4606-AD25-4C0EF8343F87}"/>
-    <hyperlink ref="K12" r:id="rId11" location="/" xr:uid="{6D62D1AA-0242-4983-9074-2E022A409955}"/>
-    <hyperlink ref="K13" r:id="rId12" location="/" xr:uid="{5C4F3563-8817-4D02-B000-0F546235BC69}"/>
-    <hyperlink ref="K14" r:id="rId13" location="/" xr:uid="{CD16D66F-CDBC-434C-BF20-AEB5158ADB12}"/>
-    <hyperlink ref="K15" r:id="rId14" location="/" xr:uid="{CC637DFB-7C3E-4869-83C8-83EC0D5C8CB9}"/>
-    <hyperlink ref="K16" r:id="rId15" location="/" xr:uid="{3A558989-12F0-4D2C-AEE4-742A92A2CA19}"/>
-    <hyperlink ref="K17" r:id="rId16" location="/" xr:uid="{E30A5795-D47A-400E-B9DF-3CAA47E1001E}"/>
-    <hyperlink ref="K18" r:id="rId17" location="/" xr:uid="{71B0970C-6986-486A-B80C-5782B6630796}"/>
-    <hyperlink ref="K19" r:id="rId18" location="/" xr:uid="{B7DDCD3E-FD2C-4E22-BD9C-D069A459277D}"/>
-    <hyperlink ref="K20" r:id="rId19" location="/" xr:uid="{6273E9AC-D728-49D2-8565-EFA90B01A505}"/>
-    <hyperlink ref="K21" r:id="rId20" location="/" xr:uid="{F213E32D-B968-48D1-99DE-49C73382BDD8}"/>
-    <hyperlink ref="K22" r:id="rId21" location="/" xr:uid="{BD1666D4-0CA2-45D0-8138-3DC08AA7EE7C}"/>
-    <hyperlink ref="K23" r:id="rId22" location="/" xr:uid="{A2C3D2D0-C98A-4C40-AE83-8F6E087161EE}"/>
-    <hyperlink ref="K24" r:id="rId23" location="/" xr:uid="{5924B6C0-66F8-420E-86BA-E315B1E1ED27}"/>
-    <hyperlink ref="K25" r:id="rId24" location="/" xr:uid="{54ABE24A-ECBF-4A40-A4E1-BAE45D25937A}"/>
-    <hyperlink ref="K26" r:id="rId25" location="/" xr:uid="{3D9344EE-00D0-43CF-BAB7-9D7F9B0BB1CC}"/>
-    <hyperlink ref="K27" r:id="rId26" location="/" xr:uid="{A6A8C5FA-8A31-447E-BBC5-B04338F551BF}"/>
-    <hyperlink ref="K28" r:id="rId27" location="/" xr:uid="{059D0542-AA2D-45C7-973B-EA32C8E2BF3D}"/>
-    <hyperlink ref="K29" r:id="rId28" location="/" xr:uid="{10F9EA4C-91A2-4738-BCAC-88D8F1541501}"/>
-    <hyperlink ref="K30" r:id="rId29" location="/" xr:uid="{0AC13A0E-1DD8-4A26-B320-4F4474D434C9}"/>
-    <hyperlink ref="K31" r:id="rId30" location="/" xr:uid="{FCF628FD-CE83-4FAC-9CB9-1F7EE0B979EE}"/>
-    <hyperlink ref="K32" r:id="rId31" location="/" xr:uid="{33EFD95F-684A-4B3E-97A2-F22919755035}"/>
-    <hyperlink ref="K33" r:id="rId32" location="/" xr:uid="{5C693455-3B6B-41CB-A0F1-F921B39D6234}"/>
-    <hyperlink ref="K34" r:id="rId33" location="/" xr:uid="{2D46E492-11F9-4B75-8693-93FFCE166B35}"/>
-    <hyperlink ref="K35" r:id="rId34" location="/" xr:uid="{4C933810-56D5-4FAF-8C51-F8EABB0BE8A9}"/>
-    <hyperlink ref="K36" r:id="rId35" location="/" xr:uid="{42EE476A-447C-4F55-B606-51CD726D395E}"/>
-    <hyperlink ref="K37" r:id="rId36" location="/" xr:uid="{AE273987-C4F9-41AF-AB1A-6DEED0CD4DBB}"/>
-    <hyperlink ref="K38" r:id="rId37" location="/" xr:uid="{26020A6B-3267-4B85-828B-94469E95B495}"/>
-    <hyperlink ref="K39" r:id="rId38" location="/" xr:uid="{DB9B4848-2C76-42CE-9E84-8BB64FBB575C}"/>
-    <hyperlink ref="K40" r:id="rId39" location="/" xr:uid="{C54210E6-FFB4-42CE-A8F9-D998EBB63ADE}"/>
-    <hyperlink ref="K41" r:id="rId40" location="/" xr:uid="{F4FAE208-11DC-40D2-A66A-DDCD044A8850}"/>
-    <hyperlink ref="K42" r:id="rId41" location="/" xr:uid="{DAA3D00B-13D5-4115-A5F0-E402E721956E}"/>
-    <hyperlink ref="K43" r:id="rId42" location="/" xr:uid="{3B614CA5-9922-451B-82EF-7181A47643ED}"/>
-    <hyperlink ref="K44" r:id="rId43" location="/" xr:uid="{45A15A22-E0A6-4EA0-A1A2-9C4F81431CF8}"/>
-    <hyperlink ref="K45" r:id="rId44" location="/" xr:uid="{8BE914BE-A3E8-4780-A2E2-1E18983FA14D}"/>
-    <hyperlink ref="K46" r:id="rId45" location="/" xr:uid="{83DC0773-0774-4A13-9B27-359F30A6F30B}"/>
-    <hyperlink ref="K47" r:id="rId46" location="/" xr:uid="{31BAEF3A-077B-4B86-850F-26A53847A76E}"/>
-    <hyperlink ref="K48" r:id="rId47" location="/" xr:uid="{ABF9F0A4-61D7-4186-9DA0-D6C38B55DE0C}"/>
-    <hyperlink ref="K49" r:id="rId48" location="/" xr:uid="{EF692602-BA6B-4BEF-85BC-C1A9F6786AB5}"/>
-    <hyperlink ref="K50" r:id="rId49" location="/" xr:uid="{95CBDE5A-CD44-4C53-81B5-1E588FAC4802}"/>
-    <hyperlink ref="K51" r:id="rId50" location="/" xr:uid="{23E51491-C89F-4B29-9BF2-8C2BB1BC6E8B}"/>
-    <hyperlink ref="K52" r:id="rId51" xr:uid="{FF96A9B2-04DA-48EC-A50F-3D2A2473E3CA}"/>
-    <hyperlink ref="K53" r:id="rId52" xr:uid="{206C38EF-A1EF-4BBD-BAF1-47BDDD74D2B0}"/>
-    <hyperlink ref="K54" r:id="rId53" xr:uid="{5694A9B3-B658-49D3-9D2F-E2F7F5237157}"/>
-    <hyperlink ref="K55" r:id="rId54" xr:uid="{F73537FB-7237-4DB3-B357-EA400DC3ED2B}"/>
-    <hyperlink ref="K56" r:id="rId55" xr:uid="{F97E1D7F-53E4-4181-8656-4856C73666F9}"/>
-    <hyperlink ref="K57" r:id="rId56" xr:uid="{C5392B31-EE88-4FA6-8CA5-7B3B9C699D9C}"/>
-    <hyperlink ref="K58" r:id="rId57" xr:uid="{39F4093A-6099-4E15-A310-D8F848AE5264}"/>
-    <hyperlink ref="K59" r:id="rId58" xr:uid="{533E72C3-125B-4BFE-B2DA-7F188D7A6DA6}"/>
-    <hyperlink ref="K60" r:id="rId59" xr:uid="{BBA74FC7-2D55-4998-9601-BA26B1223847}"/>
-    <hyperlink ref="K61" r:id="rId60" xr:uid="{D5065AE8-FCC7-43AD-BDAC-032E25422B8B}"/>
-    <hyperlink ref="K62" r:id="rId61" xr:uid="{1098B4BC-879A-446C-B20A-6E2ADEC09BDF}"/>
-    <hyperlink ref="K63" r:id="rId62" xr:uid="{D9ABE863-DB50-47F7-8BD2-E0440C75BB10}"/>
-    <hyperlink ref="K64" r:id="rId63" xr:uid="{7DBF9AA6-6B2D-49B8-B27D-4347B4526266}"/>
-    <hyperlink ref="K65" r:id="rId64" xr:uid="{CDC6F727-9B4B-447F-99DA-2821B47BA8B0}"/>
-    <hyperlink ref="K66" r:id="rId65" xr:uid="{6C301570-48D8-4457-AC94-A95B05E5642B}"/>
-    <hyperlink ref="K67" r:id="rId66" xr:uid="{217B145A-589E-4E54-805C-9F1A23DF4446}"/>
-    <hyperlink ref="K68" r:id="rId67" xr:uid="{4D5370A5-B4EB-4580-9A29-D40BB7234DF3}"/>
-    <hyperlink ref="K69" r:id="rId68" xr:uid="{108760E0-1A8C-4727-8008-D78D3E2EF098}"/>
-    <hyperlink ref="K70" r:id="rId69" xr:uid="{15A7B4F1-34BB-4A6E-B5C4-F6625FE2FCE2}"/>
-    <hyperlink ref="K71" r:id="rId70" xr:uid="{64CF3D92-3733-409E-A199-DE27D7307BF5}"/>
-    <hyperlink ref="K72" r:id="rId71" xr:uid="{3CDCFB17-8A56-44CA-9F3D-9AA9A67283AA}"/>
-    <hyperlink ref="K73" r:id="rId72" xr:uid="{94055057-5595-450C-9CE8-59EE7701CA48}"/>
-    <hyperlink ref="K74" r:id="rId73" xr:uid="{3B3A14FE-EA5A-4B4C-84CF-F4ECCEBD0CE6}"/>
-    <hyperlink ref="K75" r:id="rId74" xr:uid="{DD5961CC-80E1-41BE-9653-A2C2463BFFA2}"/>
-    <hyperlink ref="K76" r:id="rId75" xr:uid="{8B8080EA-0C5F-404F-B777-3FF1E770D9AD}"/>
-    <hyperlink ref="K77" r:id="rId76" xr:uid="{DE1F0933-91EB-42F6-8EE2-2E67EE62EDB8}"/>
-    <hyperlink ref="K78" r:id="rId77" xr:uid="{30EE68F9-79E6-453D-ABC2-4BAF224ADCC1}"/>
-    <hyperlink ref="K79" r:id="rId78" xr:uid="{40B043DE-B03D-49DC-8916-4358BB138C7F}"/>
-    <hyperlink ref="K80" r:id="rId79" xr:uid="{8473C0CB-674C-48EA-AF6B-6DD3237FAEB1}"/>
-    <hyperlink ref="K97" r:id="rId80" location="/" xr:uid="{BADE6FC0-9181-4513-B056-40FF85E61529}"/>
-    <hyperlink ref="K96" r:id="rId81" xr:uid="{807542CC-3D9B-4CA9-B58F-03E8C01F3367}"/>
-    <hyperlink ref="K98" r:id="rId82" location="/" xr:uid="{D9C395EC-B09F-4389-9507-D96B48C25C32}"/>
-    <hyperlink ref="K99" r:id="rId83" location="/" xr:uid="{864305FC-BFBB-4B01-BDC3-126D9071E44A}"/>
-    <hyperlink ref="K100" r:id="rId84" location="/" xr:uid="{CE244932-B8DC-4742-A355-ECB6E62D7FC6}"/>
-    <hyperlink ref="K101" r:id="rId85" location="/" xr:uid="{2222538A-E5AA-4FA3-9562-A84A66323BFE}"/>
-    <hyperlink ref="K85" r:id="rId86" xr:uid="{B098E530-4248-FE41-A802-FC4D362BAAAD}"/>
+    <hyperlink ref="K6" r:id="rId4" location="/" xr:uid="{E3ACA3C5-57D0-46F7-96A0-9C01A6CDFD3C}"/>
+    <hyperlink ref="K7" r:id="rId5" location="/" xr:uid="{C2F82212-3B26-401E-9D5E-241E9BB0454A}"/>
+    <hyperlink ref="K8" r:id="rId6" location="/" xr:uid="{76168D76-EC85-46F9-A2F5-431CFCBD0F9D}"/>
+    <hyperlink ref="K9" r:id="rId7" location="/" xr:uid="{87F19E06-29C9-47B7-8515-AF2F9D249120}"/>
+    <hyperlink ref="K10" r:id="rId8" location="/" xr:uid="{FC666AD3-D5FE-4D95-83CF-A09FE113A978}"/>
+    <hyperlink ref="K11" r:id="rId9" location="/" xr:uid="{66661BEC-B500-4606-AD25-4C0EF8343F87}"/>
+    <hyperlink ref="K12" r:id="rId10" location="/" xr:uid="{6D62D1AA-0242-4983-9074-2E022A409955}"/>
+    <hyperlink ref="K13" r:id="rId11" location="/" xr:uid="{5C4F3563-8817-4D02-B000-0F546235BC69}"/>
+    <hyperlink ref="K14" r:id="rId12" location="/" xr:uid="{CD16D66F-CDBC-434C-BF20-AEB5158ADB12}"/>
+    <hyperlink ref="K15" r:id="rId13" location="/" xr:uid="{CC637DFB-7C3E-4869-83C8-83EC0D5C8CB9}"/>
+    <hyperlink ref="K16" r:id="rId14" location="/" xr:uid="{3A558989-12F0-4D2C-AEE4-742A92A2CA19}"/>
+    <hyperlink ref="K17" r:id="rId15" location="/" xr:uid="{E30A5795-D47A-400E-B9DF-3CAA47E1001E}"/>
+    <hyperlink ref="K18" r:id="rId16" location="/" xr:uid="{71B0970C-6986-486A-B80C-5782B6630796}"/>
+    <hyperlink ref="K19" r:id="rId17" location="/" xr:uid="{B7DDCD3E-FD2C-4E22-BD9C-D069A459277D}"/>
+    <hyperlink ref="K20" r:id="rId18" location="/" xr:uid="{6273E9AC-D728-49D2-8565-EFA90B01A505}"/>
+    <hyperlink ref="K21" r:id="rId19" location="/" xr:uid="{F213E32D-B968-48D1-99DE-49C73382BDD8}"/>
+    <hyperlink ref="K22" r:id="rId20" location="/" xr:uid="{BD1666D4-0CA2-45D0-8138-3DC08AA7EE7C}"/>
+    <hyperlink ref="K23" r:id="rId21" location="/" xr:uid="{A2C3D2D0-C98A-4C40-AE83-8F6E087161EE}"/>
+    <hyperlink ref="K24" r:id="rId22" location="/" xr:uid="{5924B6C0-66F8-420E-86BA-E315B1E1ED27}"/>
+    <hyperlink ref="K25" r:id="rId23" location="/" xr:uid="{54ABE24A-ECBF-4A40-A4E1-BAE45D25937A}"/>
+    <hyperlink ref="K26" r:id="rId24" location="/" xr:uid="{3D9344EE-00D0-43CF-BAB7-9D7F9B0BB1CC}"/>
+    <hyperlink ref="K27" r:id="rId25" location="/" xr:uid="{A6A8C5FA-8A31-447E-BBC5-B04338F551BF}"/>
+    <hyperlink ref="K28" r:id="rId26" location="/" xr:uid="{059D0542-AA2D-45C7-973B-EA32C8E2BF3D}"/>
+    <hyperlink ref="K29" r:id="rId27" location="/" xr:uid="{10F9EA4C-91A2-4738-BCAC-88D8F1541501}"/>
+    <hyperlink ref="K30" r:id="rId28" location="/" xr:uid="{0AC13A0E-1DD8-4A26-B320-4F4474D434C9}"/>
+    <hyperlink ref="K31" r:id="rId29" location="/" xr:uid="{FCF628FD-CE83-4FAC-9CB9-1F7EE0B979EE}"/>
+    <hyperlink ref="K32" r:id="rId30" location="/" xr:uid="{33EFD95F-684A-4B3E-97A2-F22919755035}"/>
+    <hyperlink ref="K33" r:id="rId31" location="/" xr:uid="{5C693455-3B6B-41CB-A0F1-F921B39D6234}"/>
+    <hyperlink ref="K34" r:id="rId32" location="/" xr:uid="{2D46E492-11F9-4B75-8693-93FFCE166B35}"/>
+    <hyperlink ref="K35" r:id="rId33" location="/" xr:uid="{4C933810-56D5-4FAF-8C51-F8EABB0BE8A9}"/>
+    <hyperlink ref="K36" r:id="rId34" location="/" xr:uid="{42EE476A-447C-4F55-B606-51CD726D395E}"/>
+    <hyperlink ref="K37" r:id="rId35" location="/" xr:uid="{AE273987-C4F9-41AF-AB1A-6DEED0CD4DBB}"/>
+    <hyperlink ref="K38" r:id="rId36" location="/" xr:uid="{26020A6B-3267-4B85-828B-94469E95B495}"/>
+    <hyperlink ref="K40" r:id="rId37" location="/" xr:uid="{C54210E6-FFB4-42CE-A8F9-D998EBB63ADE}"/>
+    <hyperlink ref="K41" r:id="rId38" location="/" xr:uid="{F4FAE208-11DC-40D2-A66A-DDCD044A8850}"/>
+    <hyperlink ref="K42" r:id="rId39" location="/" xr:uid="{DAA3D00B-13D5-4115-A5F0-E402E721956E}"/>
+    <hyperlink ref="K43" r:id="rId40" location="/" xr:uid="{3B614CA5-9922-451B-82EF-7181A47643ED}"/>
+    <hyperlink ref="K44" r:id="rId41" location="/" xr:uid="{45A15A22-E0A6-4EA0-A1A2-9C4F81431CF8}"/>
+    <hyperlink ref="K47" r:id="rId42" location="/" xr:uid="{31BAEF3A-077B-4B86-850F-26A53847A76E}"/>
+    <hyperlink ref="K48" r:id="rId43" location="/" xr:uid="{ABF9F0A4-61D7-4186-9DA0-D6C38B55DE0C}"/>
+    <hyperlink ref="K49" r:id="rId44" location="/" xr:uid="{EF692602-BA6B-4BEF-85BC-C1A9F6786AB5}"/>
+    <hyperlink ref="K50" r:id="rId45" location="/" xr:uid="{95CBDE5A-CD44-4C53-81B5-1E588FAC4802}"/>
+    <hyperlink ref="K51" r:id="rId46" location="/" xr:uid="{23E51491-C89F-4B29-9BF2-8C2BB1BC6E8B}"/>
+    <hyperlink ref="K52" r:id="rId47" xr:uid="{FF96A9B2-04DA-48EC-A50F-3D2A2473E3CA}"/>
+    <hyperlink ref="K53" r:id="rId48" xr:uid="{206C38EF-A1EF-4BBD-BAF1-47BDDD74D2B0}"/>
+    <hyperlink ref="K54" r:id="rId49" xr:uid="{5694A9B3-B658-49D3-9D2F-E2F7F5237157}"/>
+    <hyperlink ref="K55" r:id="rId50" xr:uid="{F73537FB-7237-4DB3-B357-EA400DC3ED2B}"/>
+    <hyperlink ref="K57" r:id="rId51" xr:uid="{C5392B31-EE88-4FA6-8CA5-7B3B9C699D9C}"/>
+    <hyperlink ref="K58" r:id="rId52" xr:uid="{39F4093A-6099-4E15-A310-D8F848AE5264}"/>
+    <hyperlink ref="K59" r:id="rId53" xr:uid="{533E72C3-125B-4BFE-B2DA-7F188D7A6DA6}"/>
+    <hyperlink ref="K60" r:id="rId54" xr:uid="{BBA74FC7-2D55-4998-9601-BA26B1223847}"/>
+    <hyperlink ref="K61" r:id="rId55" xr:uid="{D5065AE8-FCC7-43AD-BDAC-032E25422B8B}"/>
+    <hyperlink ref="K62" r:id="rId56" xr:uid="{1098B4BC-879A-446C-B20A-6E2ADEC09BDF}"/>
+    <hyperlink ref="K63" r:id="rId57" xr:uid="{D9ABE863-DB50-47F7-8BD2-E0440C75BB10}"/>
+    <hyperlink ref="K64" r:id="rId58" xr:uid="{7DBF9AA6-6B2D-49B8-B27D-4347B4526266}"/>
+    <hyperlink ref="K65" r:id="rId59" xr:uid="{CDC6F727-9B4B-447F-99DA-2821B47BA8B0}"/>
+    <hyperlink ref="K66" r:id="rId60" xr:uid="{6C301570-48D8-4457-AC94-A95B05E5642B}"/>
+    <hyperlink ref="K67" r:id="rId61" xr:uid="{217B145A-589E-4E54-805C-9F1A23DF4446}"/>
+    <hyperlink ref="K68" r:id="rId62" xr:uid="{4D5370A5-B4EB-4580-9A29-D40BB7234DF3}"/>
+    <hyperlink ref="K71" r:id="rId63" xr:uid="{64CF3D92-3733-409E-A199-DE27D7307BF5}"/>
+    <hyperlink ref="K72" r:id="rId64" xr:uid="{3CDCFB17-8A56-44CA-9F3D-9AA9A67283AA}"/>
+    <hyperlink ref="K75" r:id="rId65" xr:uid="{DD5961CC-80E1-41BE-9653-A2C2463BFFA2}"/>
+    <hyperlink ref="K78" r:id="rId66" xr:uid="{30EE68F9-79E6-453D-ABC2-4BAF224ADCC1}"/>
+    <hyperlink ref="K79" r:id="rId67" xr:uid="{40B043DE-B03D-49DC-8916-4358BB138C7F}"/>
+    <hyperlink ref="K80" r:id="rId68" xr:uid="{8473C0CB-674C-48EA-AF6B-6DD3237FAEB1}"/>
+    <hyperlink ref="K97" r:id="rId69" location="/" xr:uid="{BADE6FC0-9181-4513-B056-40FF85E61529}"/>
+    <hyperlink ref="K96" r:id="rId70" xr:uid="{807542CC-3D9B-4CA9-B58F-03E8C01F3367}"/>
+    <hyperlink ref="K98" r:id="rId71" location="/" xr:uid="{D9C395EC-B09F-4389-9507-D96B48C25C32}"/>
+    <hyperlink ref="K99" r:id="rId72" location="/" xr:uid="{864305FC-BFBB-4B01-BDC3-126D9071E44A}"/>
+    <hyperlink ref="K100" r:id="rId73" location="/" xr:uid="{CE244932-B8DC-4742-A355-ECB6E62D7FC6}"/>
+    <hyperlink ref="K101" r:id="rId74" location="/" xr:uid="{2222538A-E5AA-4FA3-9562-A84A66323BFE}"/>
+    <hyperlink ref="K85" r:id="rId75" xr:uid="{B098E530-4248-FE41-A802-FC4D362BAAAD}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -4529,12 +4563,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100311762ABB12F5444A842B0704AD8CB75" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="391934ffe1789344a2d40a0f2451fa7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b1713f11-d372-4727-b0f5-8f5ceddd3f6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5bc0c1b64c269c88475c5b4cd3003e4" ns2:_="">
     <xsd:import namespace="b1713f11-d372-4727-b0f5-8f5ceddd3f6f"/>
@@ -4672,6 +4700,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4682,15 +4716,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D4184D4-905B-4212-8443-92884FC1C8A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617A851A-E0F8-463F-9E7D-ECE8CF4BC60C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4708,6 +4733,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D4184D4-905B-4212-8443-92884FC1C8A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4434302A-8A11-4F6D-A892-EE879381B1AB}">
   <ds:schemaRefs>

--- a/Mieten.xlsx
+++ b/Mieten.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Desktop/Schreibtisch – MacBook Pro von Manuel/Master/Semester 1/Wissenschaftliche_Methodik/WM_WiSe23/Modellierung_Kaltmiete/wime-modellierung-kaltmiete/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaiherbst/dev/wime-modellierung-kaltmiete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D4DC3F-21A3-364F-A966-3C6E2756A6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220793DC-3CBE-4C49-B38C-D7C9DB47FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10620" yWindow="-25740" windowWidth="51660" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$99</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="121">
   <si>
     <t>Ort</t>
   </si>
@@ -167,9 +167,6 @@
     <t>https://www.immobilienscout24.de/expose/148220847?referrer=RESULT_LIST_LISTING&amp;searchId=d5bcff1c-250b-38f4-8d08-3cd0e13b9797&amp;searchType=district#/</t>
   </si>
   <si>
-    <t>Gas-Heizung</t>
-  </si>
-  <si>
     <t>https://www.immobilienscout24.de/expose/97806070?referrer=RESULT_LIST_LISTING&amp;searchId=69ea3df3-e89a-3ab4-867f-0ff781e346cb&amp;searchType=district#/</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>https://www.immobilienscout24.de/expose/145961625?referrer=RESULT_LIST_LISTING&amp;searchId=69ea3df3-e89a-3ab4-867f-0ff781e346cb&amp;searchType=district#/</t>
   </si>
   <si>
-    <t>Holz-Pelletheizung</t>
-  </si>
-  <si>
     <t>https://www.immobilienscout24.de/expose/148216867?referrer=RESULT_LIST_LISTING&amp;searchId=d5bcff1c-250b-38f4-8d08-3cd0e13b9797&amp;searchType=district#/</t>
   </si>
   <si>
@@ -341,18 +335,12 @@
     <t>https://www.immobilienscout24.de/expose/148059524</t>
   </si>
   <si>
-    <t>https://www.immobilienscout24.de/expose/76998775</t>
-  </si>
-  <si>
     <t>https://www.immobilienscout24.de/expose/112298665</t>
   </si>
   <si>
     <t>https://www.immobilienscout24.de/expose/148031319</t>
   </si>
   <si>
-    <t>https://www.immobilienscout24.de/expose/126259599</t>
-  </si>
-  <si>
     <t>https://www.immobilienscout24.de/expose/147759245?referrer=RESULT_LIST_LISTING&amp;searchId=b91d15c4-cfd2-3c88-a0b6-9c5111de10a5&amp;searchType=district#/</t>
   </si>
   <si>
@@ -408,6 +396,15 @@
   </si>
   <si>
     <t>https://www.immobilienscout24.de/expose/148846972?referrer=RESULT_LIST_LISTING&amp;searchId=354014a7-8bf3-38ef-9d5e-692a520bb8c0&amp;searchType=district#/</t>
+  </si>
+  <si>
+    <t>Gasheizung</t>
+  </si>
+  <si>
+    <t>Etagenheizung</t>
+  </si>
+  <si>
+    <t>Holzpelletheizung</t>
   </si>
 </sst>
 </file>
@@ -450,11 +447,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -475,9 +473,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -515,7 +513,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -621,7 +619,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -763,7 +761,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -771,15 +769,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="5" max="5" width="11.5" style="4"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
@@ -799,7 +798,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -837,7 +836,7 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2">
@@ -875,7 +874,7 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3">
@@ -913,7 +912,7 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4">
@@ -951,7 +950,7 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5">
@@ -970,7 +969,7 @@
         <v>2021</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L5" s="1">
         <v>45333</v>
@@ -989,7 +988,7 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>3</v>
       </c>
       <c r="F6">
@@ -1027,7 +1026,7 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>3</v>
       </c>
       <c r="F7">
@@ -1065,7 +1064,7 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>9</v>
       </c>
       <c r="F8">
@@ -1103,7 +1102,7 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>5</v>
       </c>
       <c r="F9">
@@ -1141,7 +1140,7 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>4</v>
       </c>
       <c r="F10">
@@ -1179,7 +1178,7 @@
       <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>3</v>
       </c>
       <c r="F11">
@@ -1217,7 +1216,7 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>11</v>
       </c>
       <c r="F12">
@@ -1255,7 +1254,7 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>16</v>
       </c>
       <c r="F13">
@@ -1293,7 +1292,7 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>4</v>
       </c>
       <c r="F14">
@@ -1331,7 +1330,7 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15">
@@ -1369,7 +1368,7 @@
       <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>5</v>
       </c>
       <c r="F16">
@@ -1407,7 +1406,7 @@
       <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>3</v>
       </c>
       <c r="F17">
@@ -1445,7 +1444,7 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>5</v>
       </c>
       <c r="F18">
@@ -1483,7 +1482,7 @@
       <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>6</v>
       </c>
       <c r="F19">
@@ -1521,7 +1520,7 @@
       <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>0</v>
       </c>
       <c r="F20">
@@ -1559,7 +1558,7 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>19</v>
       </c>
       <c r="F21">
@@ -1597,7 +1596,7 @@
       <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>4</v>
       </c>
       <c r="F22">
@@ -1635,7 +1634,7 @@
       <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>6</v>
       </c>
       <c r="F23">
@@ -1673,7 +1672,7 @@
       <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>0</v>
       </c>
       <c r="F24">
@@ -1711,7 +1710,7 @@
       <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>2</v>
       </c>
       <c r="F25">
@@ -1749,7 +1748,7 @@
       <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="F26">
@@ -1762,13 +1761,13 @@
         <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="J26">
         <v>1910</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L26" s="1">
         <v>45288</v>
@@ -1787,7 +1786,7 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>4</v>
       </c>
       <c r="F27">
@@ -1806,7 +1805,7 @@
         <v>2023</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L27" s="1">
         <v>45288</v>
@@ -1825,7 +1824,7 @@
       <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>0</v>
       </c>
       <c r="F28">
@@ -1844,7 +1843,7 @@
         <v>2017</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L28" s="1">
         <v>45288</v>
@@ -1863,7 +1862,7 @@
       <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29">
@@ -1876,13 +1875,13 @@
         <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="J29">
         <v>1900</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L29" s="1">
         <v>45288</v>
@@ -1901,7 +1900,7 @@
       <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>0</v>
       </c>
       <c r="F30">
@@ -1920,7 +1919,7 @@
         <v>1997</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L30" s="1">
         <v>45288</v>
@@ -1939,7 +1938,7 @@
       <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>0</v>
       </c>
       <c r="F31">
@@ -1958,7 +1957,7 @@
         <v>1991</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L31" s="1">
         <v>45288</v>
@@ -1977,7 +1976,7 @@
       <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>0</v>
       </c>
       <c r="F32">
@@ -1990,13 +1989,13 @@
         <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="J32">
         <v>2014</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L32" s="1">
         <v>45294</v>
@@ -2015,7 +2014,7 @@
       <c r="D33" t="s">
         <v>19</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <v>0</v>
       </c>
       <c r="F33">
@@ -2034,7 +2033,7 @@
         <v>1993</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L33" s="1">
         <v>45288</v>
@@ -2053,7 +2052,7 @@
       <c r="D34" t="s">
         <v>19</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <v>4</v>
       </c>
       <c r="F34">
@@ -2066,13 +2065,13 @@
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J34">
         <v>2023</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L34" s="1">
         <v>45288</v>
@@ -2091,7 +2090,7 @@
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>2</v>
       </c>
       <c r="F35">
@@ -2110,7 +2109,7 @@
         <v>2003</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L35" s="1">
         <v>45288</v>
@@ -2129,7 +2128,7 @@
       <c r="D36" t="s">
         <v>19</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>0</v>
       </c>
       <c r="F36">
@@ -2142,13 +2141,13 @@
         <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J36">
         <v>2023</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L36" s="1">
         <v>45294</v>
@@ -2167,7 +2166,7 @@
       <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>7</v>
       </c>
       <c r="F37">
@@ -2186,7 +2185,7 @@
         <v>1966</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L37" s="1">
         <v>45288</v>
@@ -2205,7 +2204,7 @@
       <c r="D38" t="s">
         <v>13</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>1</v>
       </c>
       <c r="F38">
@@ -2218,13 +2217,13 @@
         <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J38">
         <v>2024</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L38" s="1">
         <v>45288</v>
@@ -2243,7 +2242,7 @@
       <c r="D39" t="s">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <v>11</v>
       </c>
       <c r="F39">
@@ -2262,7 +2261,7 @@
         <v>1973</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L39" s="1">
         <v>45333</v>
@@ -2281,7 +2280,7 @@
       <c r="D40" t="s">
         <v>19</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40">
@@ -2294,13 +2293,13 @@
         <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="J40">
         <v>1920</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L40" s="1">
         <v>45294</v>
@@ -2319,7 +2318,7 @@
       <c r="D41" t="s">
         <v>13</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>0</v>
       </c>
       <c r="F41">
@@ -2338,7 +2337,7 @@
         <v>1991</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L41" s="1">
         <v>45288</v>
@@ -2357,7 +2356,7 @@
       <c r="D42" t="s">
         <v>19</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>0</v>
       </c>
       <c r="F42">
@@ -2376,7 +2375,7 @@
         <v>1964</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L42" s="1">
         <v>45294</v>
@@ -2395,7 +2394,7 @@
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>2</v>
       </c>
       <c r="F43">
@@ -2414,7 +2413,7 @@
         <v>2019</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L43" s="1">
         <v>45294</v>
@@ -2433,7 +2432,7 @@
       <c r="D44" t="s">
         <v>13</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>1</v>
       </c>
       <c r="F44">
@@ -2446,13 +2445,13 @@
         <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="J44">
         <v>1961</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L44" s="1">
         <v>45288</v>
@@ -2471,7 +2470,7 @@
       <c r="D45" t="s">
         <v>19</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>1</v>
       </c>
       <c r="F45">
@@ -2484,13 +2483,13 @@
         <v>19</v>
       </c>
       <c r="I45" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="J45">
         <v>1910</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L45" s="1">
         <v>45333</v>
@@ -2509,7 +2508,7 @@
       <c r="D46" t="s">
         <v>19</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>0</v>
       </c>
       <c r="F46">
@@ -2528,7 +2527,7 @@
         <v>2008</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L46" s="1">
         <v>45333</v>
@@ -2547,7 +2546,7 @@
       <c r="D47" t="s">
         <v>13</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>5</v>
       </c>
       <c r="F47">
@@ -2560,13 +2559,13 @@
         <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J47">
         <v>1954</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L47" s="1">
         <v>45294</v>
@@ -2585,7 +2584,7 @@
       <c r="D48" t="s">
         <v>19</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
         <v>3</v>
       </c>
       <c r="F48">
@@ -2598,13 +2597,13 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="J48">
         <v>1900</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L48" s="1">
         <v>45288</v>
@@ -2623,7 +2622,7 @@
       <c r="D49" t="s">
         <v>19</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>1</v>
       </c>
       <c r="F49">
@@ -2636,13 +2635,13 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>1961</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L49" s="1">
         <v>45288</v>
@@ -2661,7 +2660,7 @@
       <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>37</v>
       </c>
       <c r="F50">
@@ -2674,13 +2673,13 @@
         <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J50">
         <v>2021</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L50" s="1">
         <v>45288</v>
@@ -2699,7 +2698,7 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>2</v>
       </c>
       <c r="F51">
@@ -2718,7 +2717,7 @@
         <v>1972</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L51" s="1">
         <v>45294</v>
@@ -2726,7 +2725,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52">
         <v>765</v>
@@ -2737,7 +2736,7 @@
       <c r="D52" t="s">
         <v>19</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>2</v>
       </c>
       <c r="F52">
@@ -2753,7 +2752,7 @@
         <v>2018</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L52" s="1">
         <v>45290</v>
@@ -2761,7 +2760,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>1035</v>
@@ -2772,7 +2771,7 @@
       <c r="D53" t="s">
         <v>19</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>3</v>
       </c>
       <c r="F53">
@@ -2788,7 +2787,7 @@
         <v>1890</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L53" s="1">
         <v>45290</v>
@@ -2796,7 +2795,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>749</v>
@@ -2807,7 +2806,7 @@
       <c r="D54" t="s">
         <v>19</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>4</v>
       </c>
       <c r="F54">
@@ -2823,7 +2822,7 @@
         <v>2008</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L54" s="1">
         <v>45290</v>
@@ -2831,7 +2830,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B55">
         <v>788.7</v>
@@ -2842,7 +2841,7 @@
       <c r="D55" t="s">
         <v>19</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
         <v>5</v>
       </c>
       <c r="F55">
@@ -2858,7 +2857,7 @@
         <v>2017</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L55" s="1">
         <v>45290</v>
@@ -2866,7 +2865,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56">
         <v>457</v>
@@ -2877,7 +2876,7 @@
       <c r="D56" t="s">
         <v>19</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
         <v>4</v>
       </c>
       <c r="F56">
@@ -2893,7 +2892,7 @@
         <v>1978</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L56" s="1">
         <v>45333</v>
@@ -2901,7 +2900,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>1068.78</v>
@@ -2912,7 +2911,7 @@
       <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="4">
         <v>1</v>
       </c>
       <c r="F57">
@@ -2928,7 +2927,7 @@
         <v>1968</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L57" s="1">
         <v>45290</v>
@@ -2936,7 +2935,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>1526.58</v>
@@ -2947,7 +2946,7 @@
       <c r="D58" t="s">
         <v>13</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <v>0</v>
       </c>
       <c r="F58">
@@ -2963,7 +2962,7 @@
         <v>1968</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L58" s="1">
         <v>45290</v>
@@ -2971,7 +2970,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>985.74</v>
@@ -2982,7 +2981,7 @@
       <c r="D59" t="s">
         <v>13</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <v>0</v>
       </c>
       <c r="F59">
@@ -2998,7 +2997,7 @@
         <v>1968</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L59" s="1">
         <v>45290</v>
@@ -3006,7 +3005,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>1475.32</v>
@@ -3017,7 +3016,7 @@
       <c r="D60" t="s">
         <v>13</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <v>0</v>
       </c>
       <c r="F60">
@@ -3033,7 +3032,7 @@
         <v>1968</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L60" s="1">
         <v>45290</v>
@@ -3041,7 +3040,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>2650</v>
@@ -3052,7 +3051,7 @@
       <c r="D61" t="s">
         <v>13</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="4">
         <v>2</v>
       </c>
       <c r="F61">
@@ -3068,7 +3067,7 @@
         <v>2015</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L61" s="1">
         <v>45290</v>
@@ -3076,7 +3075,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>955</v>
@@ -3087,7 +3086,7 @@
       <c r="D62" t="s">
         <v>13</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
         <v>5</v>
       </c>
       <c r="F62">
@@ -3097,13 +3096,13 @@
         <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J62">
         <v>2023</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L62" s="1">
         <v>45290</v>
@@ -3111,7 +3110,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>1215</v>
@@ -3122,7 +3121,7 @@
       <c r="D63" t="s">
         <v>13</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="4">
         <v>4</v>
       </c>
       <c r="F63">
@@ -3138,7 +3137,7 @@
         <v>2019</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L63" s="1">
         <v>45290</v>
@@ -3146,7 +3145,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>2010</v>
@@ -3157,7 +3156,7 @@
       <c r="D64" t="s">
         <v>13</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="4">
         <v>0</v>
       </c>
       <c r="F64">
@@ -3173,7 +3172,7 @@
         <v>2019</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L64" s="1">
         <v>45290</v>
@@ -3181,7 +3180,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>1250</v>
@@ -3192,7 +3191,7 @@
       <c r="D65" t="s">
         <v>19</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="4">
         <v>3</v>
       </c>
       <c r="F65">
@@ -3208,7 +3207,7 @@
         <v>1870</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L65" s="1">
         <v>45290</v>
@@ -3216,7 +3215,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>1398</v>
@@ -3227,7 +3226,7 @@
       <c r="D66" t="s">
         <v>19</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="4">
         <v>1</v>
       </c>
       <c r="F66">
@@ -3237,13 +3236,13 @@
         <v>13</v>
       </c>
       <c r="I66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J66">
         <v>1918</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L66" s="1">
         <v>45290</v>
@@ -3251,7 +3250,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>1382</v>
@@ -3262,7 +3261,7 @@
       <c r="D67" t="s">
         <v>13</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="4">
         <v>4</v>
       </c>
       <c r="F67">
@@ -3278,7 +3277,7 @@
         <v>1900</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L67" s="1">
         <v>45290</v>
@@ -3286,7 +3285,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>690</v>
@@ -3297,7 +3296,7 @@
       <c r="D68" t="s">
         <v>19</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <v>4</v>
       </c>
       <c r="F68">
@@ -3313,7 +3312,7 @@
         <v>1900</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L68" s="1">
         <v>45290</v>
@@ -3321,7 +3320,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>498</v>
@@ -3332,7 +3331,7 @@
       <c r="D69" t="s">
         <v>19</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="4">
         <v>6</v>
       </c>
       <c r="F69">
@@ -3342,13 +3341,13 @@
         <v>19</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="J69">
         <v>1997</v>
       </c>
-      <c r="K69" s="2" t="s">
-        <v>113</v>
+      <c r="K69" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="L69" s="1">
         <v>45333</v>
@@ -3356,7 +3355,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>575</v>
@@ -3367,7 +3366,7 @@
       <c r="D70" t="s">
         <v>19</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="4">
         <v>3</v>
       </c>
       <c r="F70">
@@ -3382,8 +3381,8 @@
       <c r="J70">
         <v>1900</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>114</v>
+      <c r="K70" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="L70" s="1">
         <v>45333</v>
@@ -3391,7 +3390,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B71">
         <v>650</v>
@@ -3402,7 +3401,7 @@
       <c r="D71" t="s">
         <v>13</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="4">
         <v>1</v>
       </c>
       <c r="F71">
@@ -3412,13 +3411,13 @@
         <v>19</v>
       </c>
       <c r="I71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J71">
         <v>1920</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L71" s="1">
         <v>45290</v>
@@ -3426,7 +3425,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B72">
         <v>1599</v>
@@ -3437,7 +3436,7 @@
       <c r="D72" t="s">
         <v>13</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="4">
         <v>2</v>
       </c>
       <c r="F72">
@@ -3453,7 +3452,7 @@
         <v>2021</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L72" s="1">
         <v>45290</v>
@@ -3461,7 +3460,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B73">
         <v>350.53</v>
@@ -3472,7 +3471,7 @@
       <c r="D73" t="s">
         <v>19</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="4">
         <v>3</v>
       </c>
       <c r="F73">
@@ -3487,8 +3486,8 @@
       <c r="J73">
         <v>1996</v>
       </c>
-      <c r="K73" s="2" t="s">
-        <v>115</v>
+      <c r="K73" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="L73" s="1">
         <v>45333</v>
@@ -3496,7 +3495,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B74">
         <v>645</v>
@@ -3507,7 +3506,7 @@
       <c r="D74" t="s">
         <v>19</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="4">
         <v>3</v>
       </c>
       <c r="F74">
@@ -3523,7 +3522,7 @@
         <v>1983</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L74" s="1">
         <v>45333</v>
@@ -3531,7 +3530,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B75">
         <v>2200</v>
@@ -3542,7 +3541,7 @@
       <c r="D75" t="s">
         <v>13</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="4">
         <v>0</v>
       </c>
       <c r="F75">
@@ -3558,7 +3557,7 @@
         <v>1914</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L75" s="1">
         <v>45290</v>
@@ -3566,7 +3565,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B76">
         <v>2360</v>
@@ -3577,7 +3576,7 @@
       <c r="D76" t="s">
         <v>19</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="4">
         <v>3</v>
       </c>
       <c r="F76">
@@ -3592,8 +3591,8 @@
       <c r="J76">
         <v>1863</v>
       </c>
-      <c r="K76" s="2" t="s">
-        <v>117</v>
+      <c r="K76" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="L76" s="1">
         <v>45333</v>
@@ -3601,7 +3600,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B77">
         <v>549</v>
@@ -3612,7 +3611,7 @@
       <c r="D77" t="s">
         <v>19</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="4">
         <v>1</v>
       </c>
       <c r="F77">
@@ -3628,7 +3627,7 @@
         <v>1930</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L77" s="1">
         <v>45290</v>
@@ -3636,7 +3635,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78">
         <v>783</v>
@@ -3647,7 +3646,7 @@
       <c r="D78" t="s">
         <v>13</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="4">
         <v>1</v>
       </c>
       <c r="F78">
@@ -3663,7 +3662,7 @@
         <v>1900</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L78" s="1">
         <v>45290</v>
@@ -3671,7 +3670,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79">
         <v>576</v>
@@ -3682,7 +3681,7 @@
       <c r="D79" t="s">
         <v>13</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="4">
         <v>1</v>
       </c>
       <c r="F79">
@@ -3698,7 +3697,7 @@
         <v>2009</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L79" s="1">
         <v>45290</v>
@@ -3706,7 +3705,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B80">
         <v>676</v>
@@ -3717,7 +3716,7 @@
       <c r="D80" t="s">
         <v>13</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="4">
         <v>5</v>
       </c>
       <c r="F80">
@@ -3727,13 +3726,13 @@
         <v>19</v>
       </c>
       <c r="I80" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J80">
         <v>1900</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L80" s="1">
         <v>45290</v>
@@ -3741,7 +3740,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B81">
         <v>949</v>
@@ -3752,7 +3751,7 @@
       <c r="D81" t="s">
         <v>19</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="4">
         <v>3</v>
       </c>
       <c r="F81">
@@ -3768,7 +3767,7 @@
         <v>1926</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L81" s="1">
         <v>45290</v>
@@ -3776,7 +3775,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B82">
         <v>650</v>
@@ -3787,7 +3786,7 @@
       <c r="D82" t="s">
         <v>19</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="4">
         <v>2</v>
       </c>
       <c r="F82">
@@ -3803,7 +3802,7 @@
         <v>1895</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L82" s="1">
         <v>45333</v>
@@ -3811,7 +3810,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B83">
         <v>471</v>
@@ -3822,7 +3821,7 @@
       <c r="D83" t="s">
         <v>19</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="4">
         <v>1</v>
       </c>
       <c r="F83">
@@ -3838,7 +3837,7 @@
         <v>1981</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L83" s="1">
         <v>45333</v>
@@ -3846,7 +3845,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B84">
         <v>1051</v>
@@ -3857,7 +3856,7 @@
       <c r="D84" t="s">
         <v>19</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="4">
         <v>2</v>
       </c>
       <c r="F84">
@@ -3873,7 +3872,7 @@
         <v>1910</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1">
         <v>45290</v>
@@ -3881,7 +3880,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B85">
         <v>690</v>
@@ -3892,7 +3891,7 @@
       <c r="D85" t="s">
         <v>19</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="4">
         <v>3</v>
       </c>
       <c r="F85">
@@ -3908,7 +3907,7 @@
         <v>1897</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L85" s="1">
         <v>45290</v>
@@ -3916,7 +3915,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B86">
         <v>700</v>
@@ -3927,7 +3926,7 @@
       <c r="D86" t="s">
         <v>19</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="4">
         <v>5</v>
       </c>
       <c r="F86">
@@ -3943,7 +3942,7 @@
         <v>1955</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L86" s="1">
         <v>45290</v>
@@ -3951,7 +3950,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B87">
         <v>948</v>
@@ -3962,7 +3961,7 @@
       <c r="D87" t="s">
         <v>19</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="4">
         <v>2</v>
       </c>
       <c r="F87">
@@ -3978,7 +3977,7 @@
         <v>1910</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L87" s="1">
         <v>45290</v>
@@ -3986,7 +3985,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B88">
         <v>2360</v>
@@ -3997,7 +3996,7 @@
       <c r="D88" t="s">
         <v>13</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="4">
         <v>3</v>
       </c>
       <c r="F88">
@@ -4013,7 +4012,7 @@
         <v>1863</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L88" s="1">
         <v>45290</v>
@@ -4021,7 +4020,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B89">
         <v>665</v>
@@ -4032,7 +4031,7 @@
       <c r="D89" t="s">
         <v>19</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="4">
         <v>1</v>
       </c>
       <c r="F89">
@@ -4048,7 +4047,7 @@
         <v>1920</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L89" s="1">
         <v>45290</v>
@@ -4056,34 +4055,34 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B90">
-        <v>950</v>
+        <v>788.7</v>
       </c>
       <c r="C90">
-        <v>100</v>
+        <v>64.38</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
       </c>
-      <c r="E90" t="s">
-        <v>73</v>
+      <c r="E90" s="4">
+        <v>5</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G90" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I90" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J90">
-        <v>1897</v>
+        <v>2017</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="L90" s="1">
         <v>45290</v>
@@ -4091,89 +4090,89 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B91">
-        <v>788.7</v>
+        <v>1350</v>
       </c>
       <c r="C91">
-        <v>64.38</v>
+        <v>127</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
       </c>
-      <c r="E91">
-        <v>5</v>
+      <c r="E91" s="4">
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G91" t="s">
         <v>13</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="J91">
-        <v>2017</v>
+        <v>1900</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="L91" s="1">
-        <v>45290</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92">
+        <v>1035</v>
+      </c>
+      <c r="C92">
+        <v>85</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="4">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92">
+        <v>1890</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B92">
-        <v>1350</v>
-      </c>
-      <c r="C92">
-        <v>127</v>
-      </c>
-      <c r="D92" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>4</v>
-      </c>
-      <c r="G92" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" t="s">
-        <v>41</v>
-      </c>
-      <c r="J92">
-        <v>1900</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="L92" s="1">
-        <v>45333</v>
+        <v>45290</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B93">
-        <v>1035</v>
+        <v>725</v>
       </c>
       <c r="C93">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
       </c>
-      <c r="E93">
-        <v>3</v>
+      <c r="E93" s="4">
+        <v>2</v>
       </c>
       <c r="F93">
         <v>3</v>
@@ -4182,13 +4181,13 @@
         <v>19</v>
       </c>
       <c r="I93" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J93">
-        <v>1890</v>
+        <v>1912</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="L93" s="1">
         <v>45290</v>
@@ -4196,34 +4195,34 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B94">
-        <v>725</v>
+        <v>488.33</v>
       </c>
       <c r="C94">
-        <v>73</v>
+        <v>57.51</v>
       </c>
       <c r="D94" t="s">
         <v>19</v>
       </c>
-      <c r="E94">
-        <v>2</v>
+      <c r="E94" s="4">
+        <v>3</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
       </c>
       <c r="I94" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J94">
-        <v>1912</v>
+        <v>1900</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L94" s="1">
         <v>45290</v>
@@ -4231,25 +4230,25 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B95">
-        <v>488.33</v>
+        <v>688.5</v>
       </c>
       <c r="C95">
-        <v>57.51</v>
+        <v>90</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="4">
         <v>3</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I95" t="s">
         <v>16</v>
@@ -4258,68 +4257,68 @@
         <v>1900</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L95" s="1">
-        <v>45290</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B96">
-        <v>698</v>
+        <v>758.94</v>
       </c>
       <c r="C96">
-        <v>64</v>
+        <v>58.38</v>
       </c>
       <c r="D96" t="s">
         <v>19</v>
       </c>
-      <c r="E96" t="s">
-        <v>73</v>
+      <c r="E96" s="4">
+        <v>4</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96" t="s">
         <v>13</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J96">
-        <v>1961</v>
+        <v>2020</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L96" s="1">
-        <v>45290</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B97">
-        <v>688.5</v>
+        <v>1105</v>
       </c>
       <c r="C97">
-        <v>90</v>
+        <v>81.47</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97">
+        <v>13</v>
+      </c>
+      <c r="E97" s="4">
         <v>3</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I97" t="s">
         <v>16</v>
@@ -4328,7 +4327,7 @@
         <v>1900</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L97" s="1">
         <v>45294</v>
@@ -4336,18 +4335,18 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B98">
-        <v>758.94</v>
+        <v>899</v>
       </c>
       <c r="C98">
-        <v>58.38</v>
+        <v>69</v>
       </c>
       <c r="D98" t="s">
         <v>19</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="4">
         <v>4</v>
       </c>
       <c r="F98">
@@ -4360,10 +4359,10 @@
         <v>16</v>
       </c>
       <c r="J98">
-        <v>2020</v>
+        <v>1998</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L98" s="1">
         <v>45294</v>
@@ -4371,19 +4370,19 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B99">
-        <v>1105</v>
+        <v>749</v>
       </c>
       <c r="C99">
-        <v>81.47</v>
+        <v>61.41</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="E99" s="4">
+        <v>4</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -4392,90 +4391,20 @@
         <v>19</v>
       </c>
       <c r="I99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J99">
-        <v>1900</v>
+        <v>2008</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L99" s="1">
         <v>45294</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>68</v>
-      </c>
-      <c r="B100">
-        <v>899</v>
-      </c>
-      <c r="C100">
-        <v>69</v>
-      </c>
-      <c r="D100" t="s">
-        <v>19</v>
-      </c>
-      <c r="E100">
-        <v>4</v>
-      </c>
-      <c r="F100">
-        <v>2</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100">
-        <v>1998</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L100" s="1">
-        <v>45294</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>68</v>
-      </c>
-      <c r="B101">
-        <v>749</v>
-      </c>
-      <c r="C101">
-        <v>61.41</v>
-      </c>
-      <c r="D101" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101">
-        <v>4</v>
-      </c>
-      <c r="F101">
-        <v>2</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
-      <c r="I101" t="s">
-        <v>14</v>
-      </c>
-      <c r="J101">
-        <v>2008</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L101" s="1">
-        <v>45294</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L99" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" location="/" xr:uid="{4F486623-0255-4E54-8D8D-5A44280F75AD}"/>
     <hyperlink ref="K3" r:id="rId2" location="/" xr:uid="{B5496118-907E-4B44-B7DA-EE6819F7C497}"/>
@@ -4545,13 +4474,16 @@
     <hyperlink ref="K78" r:id="rId66" xr:uid="{30EE68F9-79E6-453D-ABC2-4BAF224ADCC1}"/>
     <hyperlink ref="K79" r:id="rId67" xr:uid="{40B043DE-B03D-49DC-8916-4358BB138C7F}"/>
     <hyperlink ref="K80" r:id="rId68" xr:uid="{8473C0CB-674C-48EA-AF6B-6DD3237FAEB1}"/>
-    <hyperlink ref="K97" r:id="rId69" location="/" xr:uid="{BADE6FC0-9181-4513-B056-40FF85E61529}"/>
-    <hyperlink ref="K96" r:id="rId70" xr:uid="{807542CC-3D9B-4CA9-B58F-03E8C01F3367}"/>
-    <hyperlink ref="K98" r:id="rId71" location="/" xr:uid="{D9C395EC-B09F-4389-9507-D96B48C25C32}"/>
-    <hyperlink ref="K99" r:id="rId72" location="/" xr:uid="{864305FC-BFBB-4B01-BDC3-126D9071E44A}"/>
-    <hyperlink ref="K100" r:id="rId73" location="/" xr:uid="{CE244932-B8DC-4742-A355-ECB6E62D7FC6}"/>
-    <hyperlink ref="K101" r:id="rId74" location="/" xr:uid="{2222538A-E5AA-4FA3-9562-A84A66323BFE}"/>
-    <hyperlink ref="K85" r:id="rId75" xr:uid="{B098E530-4248-FE41-A802-FC4D362BAAAD}"/>
+    <hyperlink ref="K95" r:id="rId69" location="/" xr:uid="{BADE6FC0-9181-4513-B056-40FF85E61529}"/>
+    <hyperlink ref="K96" r:id="rId70" location="/" xr:uid="{D9C395EC-B09F-4389-9507-D96B48C25C32}"/>
+    <hyperlink ref="K97" r:id="rId71" location="/" xr:uid="{864305FC-BFBB-4B01-BDC3-126D9071E44A}"/>
+    <hyperlink ref="K98" r:id="rId72" location="/" xr:uid="{CE244932-B8DC-4742-A355-ECB6E62D7FC6}"/>
+    <hyperlink ref="K99" r:id="rId73" location="/" xr:uid="{2222538A-E5AA-4FA3-9562-A84A66323BFE}"/>
+    <hyperlink ref="K85" r:id="rId74" xr:uid="{B098E530-4248-FE41-A802-FC4D362BAAAD}"/>
+    <hyperlink ref="K69" r:id="rId75" location="/" xr:uid="{7D7171BB-C8CC-8949-9D80-D8C8DA4ECDC5}"/>
+    <hyperlink ref="K70" r:id="rId76" location="/" xr:uid="{2579F0F3-71FF-EB41-AE21-585C74579E1B}"/>
+    <hyperlink ref="K73" r:id="rId77" location="/" xr:uid="{86CF801B-0D93-8C40-A99E-88DB6F17227D}"/>
+    <hyperlink ref="K76" r:id="rId78" location="/" xr:uid="{F7143277-DF62-404C-B162-5AB719855834}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
